--- a/trunk/hxw/doc/设计/数据库表结构.xlsx
+++ b/trunk/hxw/doc/设计/数据库表结构.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="444">
   <si>
     <t>编号</t>
   </si>
@@ -1166,9 +1166,6 @@
     <t>VARCHAR2(200)</t>
   </si>
   <si>
-    <t>标题</t>
-  </si>
-  <si>
     <t>T_CS_TM 测试题目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1182,10 +1179,6 @@
     <t>状态 0为不公开 1为公开</t>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>状态 0为禁用 1为启用</t>
   </si>
   <si>
@@ -1259,12 +1252,6 @@
     <t>项目id</t>
   </si>
   <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>选项（html代码）</t>
   </si>
   <si>
@@ -1274,18 +1261,28 @@
     <t>排序，从小到大排序</t>
   </si>
   <si>
-    <r>
-      <t>类型表i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>类型表id</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>详细信息，html代码</t>
+  </si>
+  <si>
+    <t>BJXX</t>
+  </si>
+  <si>
+    <t>XSXX</t>
+  </si>
+  <si>
+    <t>显示信息（html代码）</t>
+  </si>
+  <si>
+    <t>FZ</t>
+  </si>
+  <si>
+    <t>分组号</t>
   </si>
   <si>
     <t>表1：</t>
@@ -1352,7 +1349,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>TEXT</t>
+    <t>VARCHAR2(900)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1424,7 +1421,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>LONGTEXT</t>
+    <t>CLOB</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1488,10 +1485,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>主办方资质</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1638,6 +1631,18 @@
   <si>
     <t>活动感受</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLFX</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理分析</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>由组织者编写活动者的心理分析</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FXJB</t>
@@ -1684,15 +1689,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>FXLY</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享来源</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1活动者分享自己的感受；2组织者对此活动者心理分析的分享</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>表5：</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>T_HD_HDZP 活动照片表  （活动表从表）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDZP</t>
+    <t>T_HD_ZP 活动照片表  （活动表从表）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1708,7 +1725,19 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
+    <t>SCSJ</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
     <t>上传时间</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPJJ</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动照片简介</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -2023,7 +2052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2139,9 +2168,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,14 +2556,14 @@
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -2701,14 +2727,14 @@
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -2877,14 +2903,14 @@
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
@@ -3239,14 +3265,14 @@
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3721,14 +3747,14 @@
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="43"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1">
@@ -3913,14 +3939,14 @@
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43"/>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" s="11" customFormat="1">
@@ -4387,14 +4413,14 @@
       <c r="A36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="44"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1">
       <c r="A37" s="2" t="s">
@@ -4589,14 +4615,14 @@
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -4718,14 +4744,14 @@
       <c r="A9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -4864,14 +4890,14 @@
       <c r="A18" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
@@ -4991,14 +5017,14 @@
       <c r="A26" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
@@ -5156,14 +5182,14 @@
       <c r="A36" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
@@ -5268,14 +5294,14 @@
       <c r="A43" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
@@ -5331,10 +5357,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A32" sqref="A32:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5351,14 +5377,14 @@
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -5403,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>216</v>
@@ -5422,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>290</v>
@@ -5432,7 +5458,7 @@
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -5451,7 +5477,7 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -5460,7 +5486,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -5470,7 +5496,7 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -5479,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>230</v>
@@ -5488,10 +5514,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -5499,14 +5525,14 @@
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -5570,17 +5596,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -5589,31 +5615,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>326</v>
-      </c>
+      <c r="F15" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7">
         <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -5622,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -5631,10 +5655,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -5652,7 +5676,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>8</v>
@@ -5662,7 +5686,7 @@
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -5671,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>230</v>
@@ -5680,10 +5704,10 @@
         <v>23</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -5702,7 +5726,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -5711,17 +5735,17 @@
         <v>10</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -5730,115 +5754,115 @@
         <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7">
-        <v>2</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="6" t="s">
-        <v>320</v>
-      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="6" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>8</v>
@@ -5848,16 +5872,16 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>230</v>
@@ -5866,16 +5890,16 @@
         <v>23</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>20</v>
@@ -5888,16 +5912,16 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>272</v>
@@ -5907,33 +5931,71 @@
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7">
+        <v>8</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7">
+        <v>9</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5943,10 +6005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5957,7 +6019,7 @@
     <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1">
+    <row r="1" spans="1:8" s="44" customFormat="1">
       <c r="A1" s="8"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -5967,162 +6029,162 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="51" customFormat="1">
-      <c r="A2" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:8" s="45" customFormat="1">
-      <c r="A3" s="52" t="s">
+    <row r="2" spans="1:8" s="50" customFormat="1">
+      <c r="A2" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" s="44" customFormat="1">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" s="45" customFormat="1">
+    <row r="4" spans="1:8" s="44" customFormat="1">
       <c r="A4" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+        <v>332</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" s="45" customFormat="1">
+    <row r="5" spans="1:8" s="44" customFormat="1">
       <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>331</v>
+      <c r="B5" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="52"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1">
+    <row r="6" spans="1:8" s="44" customFormat="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>331</v>
-      </c>
       <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="52"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" s="45" customFormat="1">
+    <row r="7" spans="1:8" s="44" customFormat="1">
       <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>331</v>
+      <c r="B7" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="G7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="52"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" s="45" customFormat="1">
+    <row r="8" spans="1:8" s="44" customFormat="1">
       <c r="A8" s="35">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>339</v>
+      <c r="B8" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>342</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>341</v>
+      <c r="E8" s="54"/>
+      <c r="F8" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>344</v>
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" s="45" customFormat="1">
+    <row r="9" spans="1:8" s="44" customFormat="1">
       <c r="A9" s="35">
         <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="36" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:8" s="45" customFormat="1">
+    <row r="10" spans="1:8" s="44" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6132,211 +6194,211 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" s="45" customFormat="1">
+    <row r="11" spans="1:8" s="44" customFormat="1">
       <c r="A11" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="44"/>
+        <v>348</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="43"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" s="45" customFormat="1">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:8" s="44" customFormat="1">
+      <c r="A12" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="51" t="s">
         <v>6</v>
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" s="45" customFormat="1">
+    <row r="13" spans="1:8" s="44" customFormat="1">
       <c r="A13" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+        <v>332</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" s="45" customFormat="1">
-      <c r="A14" s="55">
+    <row r="14" spans="1:8" s="44" customFormat="1">
+      <c r="A14" s="54">
         <v>2</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>331</v>
+      <c r="B14" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>349</v>
+      <c r="E14" s="54"/>
+      <c r="F14" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>352</v>
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" s="45" customFormat="1">
-      <c r="A15" s="55">
+    <row r="15" spans="1:8" s="44" customFormat="1">
+      <c r="A15" s="54">
         <v>3</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>351</v>
+      <c r="B15" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>354</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="G15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="52"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" s="45" customFormat="1">
+    <row r="16" spans="1:8" s="44" customFormat="1">
       <c r="A16" s="35">
         <v>4</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="36" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G16" s="36"/>
-      <c r="H16" s="57"/>
-    </row>
-    <row r="17" spans="1:8" s="45" customFormat="1">
-      <c r="A17" s="55">
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" s="44" customFormat="1">
+      <c r="A17" s="54">
         <v>5</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>357</v>
+      <c r="B17" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>360</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>359</v>
+      <c r="E17" s="54"/>
+      <c r="F17" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>362</v>
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" s="45" customFormat="1">
-      <c r="A18" s="55">
+    <row r="18" spans="1:8" s="44" customFormat="1">
+      <c r="A18" s="54">
         <v>6</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>360</v>
+      <c r="B18" s="52" t="s">
+        <v>363</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="G18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G18" s="52"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" s="45" customFormat="1">
+    <row r="19" spans="1:8" s="44" customFormat="1">
       <c r="A19" s="35">
         <v>7</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G19" s="36"/>
-      <c r="H19" s="57"/>
-    </row>
-    <row r="20" spans="1:8" s="45" customFormat="1">
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" s="44" customFormat="1">
       <c r="A20" s="35">
         <v>8</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="36" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G20" s="36"/>
-      <c r="H20" s="57"/>
-    </row>
-    <row r="21" spans="1:8" s="45" customFormat="1">
-      <c r="A21" s="55">
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" s="44" customFormat="1">
+      <c r="A21" s="54">
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>23</v>
@@ -6345,20 +6407,20 @@
         <v>0</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" s="45" customFormat="1">
-      <c r="A22" s="55">
+    <row r="22" spans="1:8" s="44" customFormat="1">
+      <c r="A22" s="54">
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>23</v>
@@ -6367,101 +6429,101 @@
         <v>0</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" s="45" customFormat="1">
-      <c r="A23" s="55">
+    <row r="23" spans="1:8" s="44" customFormat="1">
+      <c r="A23" s="54">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="36" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" s="58" customFormat="1">
-      <c r="A24" s="55">
+    <row r="24" spans="1:8" s="57" customFormat="1">
+      <c r="A24" s="54">
         <v>12</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="58" customFormat="1">
-      <c r="A25" s="55">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="57" customFormat="1">
+      <c r="A25" s="54">
         <v>13</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="36" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:8" s="59" customFormat="1">
-      <c r="A26" s="55">
+    <row r="26" spans="1:8" s="58" customFormat="1">
+      <c r="A26" s="54">
         <v>14</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>385</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>383</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="36" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:8" s="59" customFormat="1">
-      <c r="A27" s="55">
+    <row r="27" spans="1:8" s="58" customFormat="1">
+      <c r="A27" s="54">
         <v>15</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>23</v>
@@ -6470,19 +6532,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:8" s="59" customFormat="1">
-      <c r="A28" s="55">
+    <row r="28" spans="1:8" s="58" customFormat="1">
+      <c r="A28" s="54">
         <v>16</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>23</v>
@@ -6491,51 +6553,51 @@
         <v>0</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="58" customFormat="1">
-      <c r="A29" s="55">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="57" customFormat="1">
+      <c r="A29" s="54">
         <v>17</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="36" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:8" s="59" customFormat="1">
-      <c r="A30" s="55">
+    <row r="30" spans="1:8" s="58" customFormat="1">
+      <c r="A30" s="54">
         <v>18</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="36" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="1:8" s="45" customFormat="1">
+    <row r="31" spans="1:8" s="44" customFormat="1">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6545,418 +6607,479 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" s="45" customFormat="1">
+    <row r="32" spans="1:8" s="44" customFormat="1">
       <c r="A32" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" s="45" customFormat="1">
-      <c r="A33" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" s="44" customFormat="1">
+      <c r="A33" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="45" customFormat="1">
+    <row r="34" spans="1:7" s="44" customFormat="1">
       <c r="A34" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
+        <v>402</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="1:7" s="45" customFormat="1">
-      <c r="A35" s="55">
+    <row r="35" spans="1:7" s="44" customFormat="1">
+      <c r="A35" s="54">
         <v>2</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G35" s="52"/>
+    </row>
+    <row r="36" spans="1:7" s="44" customFormat="1">
+      <c r="A36" s="54">
+        <v>3</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="44" customFormat="1">
+      <c r="A37" s="54">
+        <v>4</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="44" customFormat="1">
+      <c r="A38" s="54">
+        <v>5</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:7" s="44" customFormat="1">
+      <c r="A39" s="54">
+        <v>6</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:7" s="44" customFormat="1">
+      <c r="A40" s="54">
+        <v>7</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="1:7" s="44" customFormat="1">
+      <c r="A41" s="54">
+        <v>8</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="44" customFormat="1">
+      <c r="A42" s="54">
+        <v>9</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="44" customFormat="1">
+      <c r="A43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="B46" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="54">
+        <v>2</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="54">
+        <v>3</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="54">
+        <v>4</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="54">
+        <v>2</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" s="52"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="54">
+        <v>3</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C55" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="1:7" s="45" customFormat="1">
-      <c r="A36" s="55">
-        <v>3</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="45" customFormat="1">
-      <c r="A37" s="55">
+      <c r="D55" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="54">
         <v>4</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="45" customFormat="1">
-      <c r="A38" s="55">
+      <c r="B56" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" s="35"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="54">
         <v>5</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="1:7" s="45" customFormat="1">
-      <c r="A39" s="55">
+      <c r="B57" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" s="52"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="54">
         <v>6</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="G39" s="53"/>
-    </row>
-    <row r="40" spans="1:7" s="45" customFormat="1">
-      <c r="A40" s="55">
-        <v>7</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="G40" s="53"/>
-    </row>
-    <row r="41" spans="1:7" s="45" customFormat="1">
-      <c r="A41" s="55">
-        <v>8</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="45" customFormat="1">
-      <c r="A42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="55">
-        <v>2</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="G46" s="53"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="55">
-        <v>3</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>423</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="55">
-        <v>2</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="G52" s="53"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="55">
-        <v>3</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="55"/>
-      <c r="F53" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="G53" s="53"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="55">
-        <v>4</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="G54" s="53" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="55">
-        <v>5</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="G55" s="53"/>
+      <c r="B58" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/hxw/doc/设计/数据库表结构.xlsx
+++ b/trunk/hxw/doc/设计/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="基础表结构" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="445">
   <si>
     <t>编号</t>
   </si>
@@ -1739,6 +1739,10 @@
   <si>
     <t>活动照片简介</t>
     <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是管理员；1表示个人会员；2企业会员。还有下级分类，具体见字典 sys_usertype：11，12,13,14,21,22,23,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2170,35 +2174,11 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2218,9 +2198,6 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2232,6 +2209,33 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2529,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2556,14 +2560,14 @@
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -2721,20 +2725,22 @@
       <c r="F12" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
@@ -2903,14 +2909,14 @@
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
@@ -3265,14 +3271,14 @@
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -3747,14 +3753,14 @@
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="55"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1">
@@ -3939,14 +3945,14 @@
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="43"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="55"/>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" s="11" customFormat="1">
@@ -4413,14 +4419,14 @@
       <c r="A36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="43"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1">
       <c r="A37" s="2" t="s">
@@ -4615,14 +4621,14 @@
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -4744,14 +4750,14 @@
       <c r="A9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -4890,14 +4896,14 @@
       <c r="A18" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
@@ -5017,14 +5023,14 @@
       <c r="A26" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
@@ -5182,14 +5188,14 @@
       <c r="A36" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
@@ -5294,14 +5300,14 @@
       <c r="A43" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
@@ -5377,14 +5383,14 @@
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -5525,14 +5531,14 @@
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -5791,14 +5797,14 @@
       <c r="A25" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
@@ -6007,7 +6013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -6019,7 +6025,7 @@
     <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1">
+    <row r="1" spans="1:8" s="39" customFormat="1">
       <c r="A1" s="8"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -6029,143 +6035,143 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="50" customFormat="1">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:8" s="42" customFormat="1">
+      <c r="A2" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" s="44" customFormat="1">
-      <c r="A3" s="51" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" s="39" customFormat="1">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" s="44" customFormat="1">
+    <row r="4" spans="1:8" s="39" customFormat="1">
       <c r="A4" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" s="44" customFormat="1">
+    <row r="5" spans="1:8" s="39" customFormat="1">
       <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="44" t="s">
         <v>334</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="44"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" s="44" customFormat="1">
+    <row r="6" spans="1:8" s="39" customFormat="1">
       <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="44" t="s">
         <v>334</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="44"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" s="44" customFormat="1">
+    <row r="7" spans="1:8" s="39" customFormat="1">
       <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>334</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="44"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" s="44" customFormat="1">
+    <row r="8" spans="1:8" s="39" customFormat="1">
       <c r="A8" s="35">
         <v>4</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="44" t="s">
         <v>342</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="44" t="s">
         <v>344</v>
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" s="44" customFormat="1">
+    <row r="9" spans="1:8" s="39" customFormat="1">
       <c r="A9" s="35">
         <v>5</v>
       </c>
@@ -6184,7 +6190,7 @@
       </c>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:8" s="44" customFormat="1">
+    <row r="10" spans="1:8" s="39" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6194,101 +6200,101 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" s="44" customFormat="1">
+    <row r="11" spans="1:8" s="39" customFormat="1">
       <c r="A11" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="55"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" s="44" customFormat="1">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:8" s="39" customFormat="1">
+      <c r="A12" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" s="44" customFormat="1">
+    <row r="13" spans="1:8" s="39" customFormat="1">
       <c r="A13" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" s="44" customFormat="1">
-      <c r="A14" s="54">
+    <row r="14" spans="1:8" s="39" customFormat="1">
+      <c r="A14" s="46">
         <v>2</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="44" t="s">
         <v>334</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="44" t="s">
         <v>352</v>
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" s="44" customFormat="1">
-      <c r="A15" s="54">
+    <row r="15" spans="1:8" s="39" customFormat="1">
+      <c r="A15" s="46">
         <v>3</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="44" t="s">
         <v>354</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="52" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="44"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" s="44" customFormat="1">
+    <row r="16" spans="1:8" s="39" customFormat="1">
       <c r="A16" s="35">
         <v>4</v>
       </c>
@@ -6306,35 +6312,35 @@
         <v>358</v>
       </c>
       <c r="G16" s="36"/>
-      <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="1:8" s="44" customFormat="1">
-      <c r="A17" s="54">
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" s="39" customFormat="1">
+      <c r="A17" s="46">
         <v>5</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="52" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="44" t="s">
         <v>362</v>
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" s="44" customFormat="1">
-      <c r="A18" s="54">
+    <row r="18" spans="1:8" s="39" customFormat="1">
+      <c r="A18" s="46">
         <v>6</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="44" t="s">
         <v>363</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6343,14 +6349,14 @@
       <c r="D18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="44"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" s="44" customFormat="1">
+    <row r="19" spans="1:8" s="39" customFormat="1">
       <c r="A19" s="35">
         <v>7</v>
       </c>
@@ -6368,9 +6374,9 @@
         <v>368</v>
       </c>
       <c r="G19" s="36"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:8" s="44" customFormat="1">
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" s="39" customFormat="1">
       <c r="A20" s="35">
         <v>8</v>
       </c>
@@ -6388,10 +6394,10 @@
         <v>371</v>
       </c>
       <c r="G20" s="36"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8" s="44" customFormat="1">
-      <c r="A21" s="54">
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" s="39" customFormat="1">
+      <c r="A21" s="46">
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
@@ -6412,8 +6418,8 @@
       <c r="G21" s="36"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" s="44" customFormat="1">
-      <c r="A22" s="54">
+    <row r="22" spans="1:8" s="39" customFormat="1">
+      <c r="A22" s="46">
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -6436,8 +6442,8 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" s="44" customFormat="1">
-      <c r="A23" s="54">
+    <row r="23" spans="1:8" s="39" customFormat="1">
+      <c r="A23" s="46">
         <v>11</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -6456,8 +6462,8 @@
       <c r="G23" s="36"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" s="57" customFormat="1">
-      <c r="A24" s="54">
+    <row r="24" spans="1:8" s="48" customFormat="1">
+      <c r="A24" s="46">
         <v>12</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -6477,8 +6483,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="57" customFormat="1">
-      <c r="A25" s="54">
+    <row r="25" spans="1:8" s="48" customFormat="1">
+      <c r="A25" s="46">
         <v>13</v>
       </c>
       <c r="B25" s="36" t="s">
@@ -6496,8 +6502,8 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:8" s="58" customFormat="1">
-      <c r="A26" s="54">
+    <row r="26" spans="1:8" s="49" customFormat="1">
+      <c r="A26" s="46">
         <v>14</v>
       </c>
       <c r="B26" s="36" t="s">
@@ -6515,8 +6521,8 @@
       </c>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:8" s="58" customFormat="1">
-      <c r="A27" s="54">
+    <row r="27" spans="1:8" s="49" customFormat="1">
+      <c r="A27" s="46">
         <v>15</v>
       </c>
       <c r="B27" s="36" t="s">
@@ -6536,8 +6542,8 @@
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:8" s="58" customFormat="1">
-      <c r="A28" s="54">
+    <row r="28" spans="1:8" s="49" customFormat="1">
+      <c r="A28" s="46">
         <v>16</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -6559,8 +6565,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="57" customFormat="1">
-      <c r="A29" s="54">
+    <row r="29" spans="1:8" s="48" customFormat="1">
+      <c r="A29" s="46">
         <v>17</v>
       </c>
       <c r="B29" s="36" t="s">
@@ -6578,8 +6584,8 @@
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:8" s="58" customFormat="1">
-      <c r="A30" s="54">
+    <row r="30" spans="1:8" s="49" customFormat="1">
+      <c r="A30" s="46">
         <v>18</v>
       </c>
       <c r="B30" s="36" t="s">
@@ -6597,7 +6603,7 @@
       </c>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="1:8" s="44" customFormat="1">
+    <row r="31" spans="1:8" s="39" customFormat="1">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6607,159 +6613,159 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" s="44" customFormat="1">
+    <row r="32" spans="1:8" s="39" customFormat="1">
       <c r="A32" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="1:7" s="44" customFormat="1">
-      <c r="A33" s="51" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" s="39" customFormat="1">
+      <c r="A33" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="44" customFormat="1">
+    <row r="34" spans="1:7" s="39" customFormat="1">
       <c r="A34" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="1:7" s="44" customFormat="1">
-      <c r="A35" s="54">
+    <row r="35" spans="1:7" s="39" customFormat="1">
+      <c r="A35" s="46">
         <v>2</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D35" s="35"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="G35" s="52"/>
-    </row>
-    <row r="36" spans="1:7" s="44" customFormat="1">
-      <c r="A36" s="54">
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" s="39" customFormat="1">
+      <c r="A36" s="46">
         <v>3</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="44" customFormat="1">
-      <c r="A37" s="54">
+    <row r="37" spans="1:7" s="39" customFormat="1">
+      <c r="A37" s="46">
         <v>4</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="44" t="s">
         <v>393</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="52" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="44" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="44" customFormat="1">
-      <c r="A38" s="54">
+    <row r="38" spans="1:7" s="39" customFormat="1">
+      <c r="A38" s="46">
         <v>5</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="44" t="s">
         <v>411</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="52" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="G38" s="52"/>
-    </row>
-    <row r="39" spans="1:7" s="44" customFormat="1">
-      <c r="A39" s="54">
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" s="39" customFormat="1">
+      <c r="A39" s="46">
         <v>6</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="44" t="s">
         <v>385</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="52" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="G39" s="52"/>
-    </row>
-    <row r="40" spans="1:7" s="44" customFormat="1">
-      <c r="A40" s="54">
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" s="39" customFormat="1">
+      <c r="A40" s="46">
         <v>7</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="44" t="s">
         <v>415</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -6768,17 +6774,17 @@
       <c r="D40" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="52" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="G40" s="52"/>
-    </row>
-    <row r="41" spans="1:7" s="44" customFormat="1">
-      <c r="A41" s="54">
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" s="39" customFormat="1">
+      <c r="A41" s="46">
         <v>8</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="44" t="s">
         <v>417</v>
       </c>
       <c r="C41" s="36" t="s">
@@ -6787,73 +6793,73 @@
       <c r="D41" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="52" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="44" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="44" customFormat="1">
-      <c r="A42" s="54">
+    <row r="42" spans="1:7" s="39" customFormat="1">
+      <c r="A42" s="46">
         <v>9</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="44" t="s">
         <v>421</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="52" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="44" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="44" customFormat="1">
-      <c r="A43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
+    <row r="43" spans="1:7" s="39" customFormat="1">
+      <c r="A43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="43"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6861,73 +6867,73 @@
       <c r="A46" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="54">
+      <c r="A47" s="46">
         <v>2</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D47" s="35"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="46"/>
+      <c r="F47" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="G47" s="52"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="54">
+      <c r="A48" s="46">
         <v>3</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="52" t="s">
+      <c r="E48" s="46"/>
+      <c r="F48" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="G48" s="52" t="s">
+      <c r="G48" s="44" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="54">
+      <c r="A49" s="46">
         <v>4</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="44" t="s">
         <v>421</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="52" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="44" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6935,35 +6941,35 @@
       <c r="A51" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="43"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="51" t="s">
+      <c r="G52" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6971,107 +6977,107 @@
       <c r="A53" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="54">
+      <c r="A54" s="46">
         <v>2</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D54" s="35"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="52" t="s">
+      <c r="E54" s="46"/>
+      <c r="F54" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="G54" s="52"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="54">
+      <c r="A55" s="46">
         <v>3</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="44" t="s">
         <v>357</v>
       </c>
       <c r="D55" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52" t="s">
+      <c r="E55" s="46"/>
+      <c r="F55" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="G55" s="52"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="54">
+      <c r="A56" s="46">
         <v>4</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="44" t="s">
         <v>360</v>
       </c>
       <c r="D56" s="35"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="52" t="s">
+      <c r="E56" s="46"/>
+      <c r="F56" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="44" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="54">
+      <c r="A57" s="46">
         <v>5</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="44" t="s">
         <v>385</v>
       </c>
       <c r="D57" s="35"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52" t="s">
+      <c r="E57" s="46"/>
+      <c r="F57" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="G57" s="52"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="54">
+      <c r="A58" s="46">
         <v>6</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="44" t="s">
         <v>370</v>
       </c>
       <c r="D58" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="52" t="s">
+      <c r="E58" s="46"/>
+      <c r="F58" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="G58" s="52"/>
+      <c r="G58" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
